--- a/grupos/2APV - Estadisticos 20202.xlsx
+++ b/grupos/2APV - Estadisticos 20202.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="109">
   <si>
     <t>Materia</t>
   </si>
@@ -191,142 +191,142 @@
     <t>GONZALEZ</t>
   </si>
   <si>
+    <t>BAEZ</t>
+  </si>
+  <si>
+    <t>GARNICA</t>
+  </si>
+  <si>
+    <t>NIEVES</t>
+  </si>
+  <si>
+    <t>ANDRADE</t>
+  </si>
+  <si>
+    <t>ANA KAREN</t>
+  </si>
+  <si>
+    <t>LEONARDO GAEL</t>
+  </si>
+  <si>
+    <t>JOSE LUIS</t>
+  </si>
+  <si>
+    <t>VALERIA</t>
+  </si>
+  <si>
+    <t>BALTAZARES</t>
+  </si>
+  <si>
+    <t>CASTRO</t>
+  </si>
+  <si>
+    <t>CASTILLO</t>
+  </si>
+  <si>
+    <t>CORONA</t>
+  </si>
+  <si>
+    <t>GUTIERREZ</t>
+  </si>
+  <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
+    <t>LOPEZ</t>
+  </si>
+  <si>
+    <t>DE LUNA</t>
+  </si>
+  <si>
     <t>LUNA</t>
   </si>
   <si>
-    <t>BAEZ</t>
-  </si>
-  <si>
-    <t>GARNICA</t>
-  </si>
-  <si>
-    <t>NIEVES</t>
-  </si>
-  <si>
-    <t>ANDRADE</t>
+    <t>MARTINEZ</t>
+  </si>
+  <si>
+    <t>OJEDA</t>
+  </si>
+  <si>
+    <t>RAMOS</t>
+  </si>
+  <si>
+    <t>SANTIAGO</t>
+  </si>
+  <si>
+    <t>TELLEZ</t>
+  </si>
+  <si>
+    <t>TINOCO</t>
+  </si>
+  <si>
+    <t>CONTRERAS</t>
+  </si>
+  <si>
+    <t>RAMIREZ</t>
   </si>
   <si>
     <t>FLORES</t>
   </si>
   <si>
-    <t>ANA KAREN</t>
-  </si>
-  <si>
-    <t>LEONARDO GAEL</t>
-  </si>
-  <si>
-    <t>JOSE LUIS</t>
-  </si>
-  <si>
-    <t>VALERIA</t>
+    <t>VILLA</t>
+  </si>
+  <si>
+    <t>DIAZ</t>
+  </si>
+  <si>
+    <t>CARRASCO</t>
+  </si>
+  <si>
+    <t>CORDOVA</t>
+  </si>
+  <si>
+    <t>RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>JIMENEZ</t>
+  </si>
+  <si>
+    <t>XOTLANIHUA</t>
+  </si>
+  <si>
+    <t>REYES</t>
+  </si>
+  <si>
+    <t>OFICIAL</t>
+  </si>
+  <si>
+    <t>IVETTE</t>
+  </si>
+  <si>
+    <t>JOSE ANTONIO</t>
+  </si>
+  <si>
+    <t>IAN URIEL</t>
+  </si>
+  <si>
+    <t>GUADALUPE</t>
+  </si>
+  <si>
+    <t>JESUS HUMBERTO</t>
+  </si>
+  <si>
+    <t>MARTIN</t>
+  </si>
+  <si>
+    <t>ELIAS ALONSO</t>
+  </si>
+  <si>
+    <t>KARLA RENATA</t>
+  </si>
+  <si>
+    <t>MIGUEL ANGEL ONAM</t>
+  </si>
+  <si>
+    <t>EUDY</t>
   </si>
   <si>
     <t>MIRANDA</t>
-  </si>
-  <si>
-    <t>BALTAZARES</t>
-  </si>
-  <si>
-    <t>CASTRO</t>
-  </si>
-  <si>
-    <t>CASTILLO</t>
-  </si>
-  <si>
-    <t>CORONA</t>
-  </si>
-  <si>
-    <t>GUTIERREZ</t>
-  </si>
-  <si>
-    <t>HERNANDEZ</t>
-  </si>
-  <si>
-    <t>LOPEZ</t>
-  </si>
-  <si>
-    <t>DE LUNA</t>
-  </si>
-  <si>
-    <t>MARTINEZ</t>
-  </si>
-  <si>
-    <t>OJEDA</t>
-  </si>
-  <si>
-    <t>RAMOS</t>
-  </si>
-  <si>
-    <t>SANTIAGO</t>
-  </si>
-  <si>
-    <t>TELLEZ</t>
-  </si>
-  <si>
-    <t>TINOCO</t>
-  </si>
-  <si>
-    <t>CONTRERAS</t>
-  </si>
-  <si>
-    <t>RAMIREZ</t>
-  </si>
-  <si>
-    <t>VILLA</t>
-  </si>
-  <si>
-    <t>DIAZ</t>
-  </si>
-  <si>
-    <t>CARRASCO</t>
-  </si>
-  <si>
-    <t>CORDOVA</t>
-  </si>
-  <si>
-    <t>RODRIGUEZ</t>
-  </si>
-  <si>
-    <t>JIMENEZ</t>
-  </si>
-  <si>
-    <t>XOTLANIHUA</t>
-  </si>
-  <si>
-    <t>REYES</t>
-  </si>
-  <si>
-    <t>OFICIAL</t>
-  </si>
-  <si>
-    <t>IVETTE</t>
-  </si>
-  <si>
-    <t>JOSE ANTONIO</t>
-  </si>
-  <si>
-    <t>IAN URIEL</t>
-  </si>
-  <si>
-    <t>GUADALUPE</t>
-  </si>
-  <si>
-    <t>JESUS HUMBERTO</t>
-  </si>
-  <si>
-    <t>MARTIN</t>
-  </si>
-  <si>
-    <t>ELIAS ALONSO</t>
-  </si>
-  <si>
-    <t>KARLA RENATA</t>
-  </si>
-  <si>
-    <t>MIGUEL ANGEL ONAM</t>
-  </si>
-  <si>
-    <t>EUDY</t>
   </si>
   <si>
     <t>DANIEL ELEAZAR</t>
@@ -891,13 +891,13 @@
         <v>10</v>
       </c>
       <c r="P4">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="Q4">
         <v>9</v>
       </c>
       <c r="R4">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="S4">
         <v>9</v>
@@ -912,7 +912,7 @@
         <v>10</v>
       </c>
       <c r="W4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="X4">
         <v>9</v>
@@ -938,13 +938,13 @@
         <v>14</v>
       </c>
       <c r="B5">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C5">
         <v>6</v>
       </c>
       <c r="D5">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E5">
         <v>6</v>
@@ -959,13 +959,13 @@
         <v>6</v>
       </c>
       <c r="I5">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J5">
         <v>6</v>
       </c>
       <c r="K5">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L5">
         <v>5</v>
@@ -980,13 +980,13 @@
         <v>5</v>
       </c>
       <c r="P5">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Q5">
         <v>6</v>
       </c>
       <c r="R5">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="S5">
         <v>7</v>
@@ -1001,13 +1001,13 @@
         <v>7</v>
       </c>
       <c r="W5">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="X5">
         <v>6</v>
       </c>
       <c r="Y5">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Z5">
         <v>6</v>
@@ -1069,13 +1069,13 @@
         <v>10</v>
       </c>
       <c r="P6">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="Q6">
         <v>10</v>
       </c>
       <c r="R6">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="S6">
         <v>10</v>
@@ -1158,13 +1158,13 @@
         <v>9</v>
       </c>
       <c r="P7">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Q7">
         <v>6</v>
       </c>
       <c r="R7">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="S7">
         <v>8</v>
@@ -1179,7 +1179,7 @@
         <v>9</v>
       </c>
       <c r="W7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="X7">
         <v>7</v>
@@ -1247,13 +1247,13 @@
         <v>5</v>
       </c>
       <c r="P8">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Q8">
         <v>6</v>
       </c>
       <c r="R8">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="S8">
         <v>-1</v>
@@ -1268,13 +1268,13 @@
         <v>7</v>
       </c>
       <c r="W8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="X8">
         <v>6</v>
       </c>
       <c r="Y8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Z8">
         <v>5</v>
@@ -1336,13 +1336,13 @@
         <v>5</v>
       </c>
       <c r="P9">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Q9">
         <v>6</v>
       </c>
       <c r="R9">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="S9">
         <v>5</v>
@@ -1357,13 +1357,13 @@
         <v>7</v>
       </c>
       <c r="W9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="X9">
         <v>6</v>
       </c>
       <c r="Y9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Z9">
         <v>6</v>
@@ -1425,13 +1425,13 @@
         <v>5</v>
       </c>
       <c r="P10">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="Q10">
         <v>8</v>
       </c>
       <c r="R10">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="S10">
         <v>8</v>
@@ -1452,7 +1452,7 @@
         <v>7</v>
       </c>
       <c r="Y10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Z10">
         <v>7</v>
@@ -1561,13 +1561,13 @@
         <v>21</v>
       </c>
       <c r="B12">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C12">
         <v>6</v>
       </c>
       <c r="D12">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E12">
         <v>5</v>
@@ -1582,13 +1582,13 @@
         <v>5</v>
       </c>
       <c r="I12">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J12">
         <v>6</v>
       </c>
       <c r="K12">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L12">
         <v>-1</v>
@@ -1603,13 +1603,13 @@
         <v>5</v>
       </c>
       <c r="P12">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Q12">
         <v>6</v>
       </c>
       <c r="R12">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="S12">
         <v>-1</v>
@@ -1624,13 +1624,13 @@
         <v>8</v>
       </c>
       <c r="W12">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="X12">
         <v>6</v>
       </c>
       <c r="Y12">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Z12">
         <v>5</v>
@@ -1692,13 +1692,13 @@
         <v>7</v>
       </c>
       <c r="P13">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="Q13">
         <v>8</v>
       </c>
       <c r="R13">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="S13">
         <v>5</v>
@@ -1719,7 +1719,7 @@
         <v>7</v>
       </c>
       <c r="Y13">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Z13">
         <v>7</v>
@@ -1781,13 +1781,13 @@
         <v>9</v>
       </c>
       <c r="P14">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="Q14">
         <v>9</v>
       </c>
       <c r="R14">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="S14">
         <v>10</v>
@@ -1870,13 +1870,13 @@
         <v>9</v>
       </c>
       <c r="P15">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="Q15">
         <v>8</v>
       </c>
       <c r="R15">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="S15">
         <v>7</v>
@@ -1959,13 +1959,13 @@
         <v>9</v>
       </c>
       <c r="P16">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="Q16">
         <v>8</v>
       </c>
       <c r="R16">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="S16">
         <v>8</v>
@@ -2048,13 +2048,13 @@
         <v>10</v>
       </c>
       <c r="P17">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="Q17">
         <v>7</v>
       </c>
       <c r="R17">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="S17">
         <v>10</v>
@@ -2095,13 +2095,13 @@
         <v>27</v>
       </c>
       <c r="B18">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C18">
         <v>6</v>
       </c>
       <c r="D18">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E18">
         <v>5</v>
@@ -2116,13 +2116,13 @@
         <v>6</v>
       </c>
       <c r="I18">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J18">
         <v>6</v>
       </c>
       <c r="K18">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L18">
         <v>6</v>
@@ -2137,13 +2137,13 @@
         <v>9</v>
       </c>
       <c r="P18">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Q18">
         <v>8</v>
       </c>
       <c r="R18">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="S18">
         <v>9</v>
@@ -2158,13 +2158,13 @@
         <v>8</v>
       </c>
       <c r="W18">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="X18">
         <v>7</v>
       </c>
       <c r="Y18">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Z18">
         <v>7</v>
@@ -2226,13 +2226,13 @@
         <v>5</v>
       </c>
       <c r="P19">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Q19">
         <v>6</v>
       </c>
       <c r="R19">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="S19">
         <v>6</v>
@@ -2247,13 +2247,13 @@
         <v>9</v>
       </c>
       <c r="W19">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="X19">
         <v>6</v>
       </c>
       <c r="Y19">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Z19">
         <v>6</v>
@@ -2315,13 +2315,13 @@
         <v>7</v>
       </c>
       <c r="P20">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="Q20">
         <v>6</v>
       </c>
       <c r="R20">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="S20">
         <v>7</v>
@@ -2404,13 +2404,13 @@
         <v>8</v>
       </c>
       <c r="P21">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="Q21">
         <v>6</v>
       </c>
       <c r="R21">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="S21">
         <v>9</v>
@@ -2493,13 +2493,13 @@
         <v>5</v>
       </c>
       <c r="P22">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Q22">
         <v>6</v>
       </c>
       <c r="R22">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="S22">
         <v>7</v>
@@ -2514,13 +2514,13 @@
         <v>8</v>
       </c>
       <c r="W22">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="X22">
         <v>6</v>
       </c>
       <c r="Y22">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Z22">
         <v>6</v>
@@ -2582,13 +2582,13 @@
         <v>6</v>
       </c>
       <c r="P23">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Q23">
         <v>5</v>
       </c>
       <c r="R23">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="S23">
         <v>6</v>
@@ -2603,13 +2603,13 @@
         <v>6</v>
       </c>
       <c r="W23">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="X23">
         <v>6</v>
       </c>
       <c r="Y23">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Z23">
         <v>6</v>
@@ -2671,13 +2671,13 @@
         <v>5</v>
       </c>
       <c r="P24">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Q24">
         <v>5</v>
       </c>
       <c r="R24">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="S24">
         <v>6</v>
@@ -2874,25 +2874,25 @@
         <v>21</v>
       </c>
       <c r="D5">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>80.95</v>
+        <v>95.23999999999999</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="I5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>19.05</v>
+        <v>4.76</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2906,25 +2906,25 @@
         <v>21</v>
       </c>
       <c r="D6">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>80.95</v>
+        <v>95.23999999999999</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>8</v>
+        <v>7.7</v>
       </c>
       <c r="I6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>19.05</v>
+        <v>4.76</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2998,7 +2998,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3036,50 +3036,50 @@
         <v>53</v>
       </c>
       <c r="C2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>20330051920261</v>
+        <v>20330051920264</v>
       </c>
       <c r="B3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C3" t="s">
         <v>58</v>
       </c>
       <c r="D3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>20330051920261</v>
+        <v>20330051920264</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C4" t="s">
         <v>58</v>
       </c>
       <c r="D4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
@@ -3090,42 +3090,42 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>20330051920264</v>
+        <v>20330051920266</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C5" t="s">
         <v>59</v>
       </c>
       <c r="D5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>20330051920264</v>
+        <v>20330051920266</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C6" t="s">
         <v>59</v>
       </c>
       <c r="D6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3136,16 +3136,16 @@
         <v>55</v>
       </c>
       <c r="C7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E7" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3156,176 +3156,56 @@
         <v>55</v>
       </c>
       <c r="C8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>20330051920266</v>
+        <v>20330051920267</v>
       </c>
       <c r="B9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C9" t="s">
         <v>60</v>
       </c>
       <c r="D9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>20330051920266</v>
+        <v>20330051920267</v>
       </c>
       <c r="B10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C10" t="s">
         <v>60</v>
       </c>
       <c r="D10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E10" t="s">
         <v>9</v>
       </c>
       <c r="F10" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11">
-        <v>20330051920267</v>
-      </c>
-      <c r="B11" t="s">
-        <v>56</v>
-      </c>
-      <c r="C11" t="s">
-        <v>61</v>
-      </c>
-      <c r="D11" t="s">
-        <v>66</v>
-      </c>
-      <c r="E11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12">
-        <v>20330051920267</v>
-      </c>
-      <c r="B12" t="s">
-        <v>56</v>
-      </c>
-      <c r="C12" t="s">
-        <v>61</v>
-      </c>
-      <c r="D12" t="s">
-        <v>66</v>
-      </c>
-      <c r="E12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13">
-        <v>20330051920267</v>
-      </c>
-      <c r="B13" t="s">
-        <v>56</v>
-      </c>
-      <c r="C13" t="s">
-        <v>61</v>
-      </c>
-      <c r="D13" t="s">
-        <v>66</v>
-      </c>
-      <c r="E13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14">
-        <v>20330051920267</v>
-      </c>
-      <c r="B14" t="s">
-        <v>56</v>
-      </c>
-      <c r="C14" t="s">
-        <v>61</v>
-      </c>
-      <c r="D14" t="s">
-        <v>66</v>
-      </c>
-      <c r="E14" t="s">
-        <v>7</v>
-      </c>
-      <c r="F14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15">
-        <v>20330051920273</v>
-      </c>
-      <c r="B15" t="s">
-        <v>57</v>
-      </c>
-      <c r="C15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D15" t="s">
-        <v>67</v>
-      </c>
-      <c r="E15" t="s">
-        <v>5</v>
-      </c>
-      <c r="F15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16">
-        <v>20330051920273</v>
-      </c>
-      <c r="B16" t="s">
-        <v>57</v>
-      </c>
-      <c r="C16" t="s">
-        <v>62</v>
-      </c>
-      <c r="D16" t="s">
-        <v>67</v>
-      </c>
-      <c r="E16" t="s">
-        <v>7</v>
-      </c>
-      <c r="F16" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -3370,10 +3250,10 @@
         <v>55</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E2">
         <v>4</v>
@@ -3381,81 +3261,81 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>20330051920267</v>
+        <v>20330051920264</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E3">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>20330051920261</v>
+        <v>20330051920267</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>20330051920264</v>
+        <v>20330051920261</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>20330051920273</v>
+        <v>20330051920260</v>
       </c>
       <c r="B6" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C6" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="D6" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>20330051920260</v>
+        <v>19330051920314</v>
       </c>
       <c r="B7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D7" t="s">
         <v>93</v>
@@ -3466,13 +3346,13 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>19330051920314</v>
+        <v>20330051920262</v>
       </c>
       <c r="B8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C8" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D8" t="s">
         <v>94</v>
@@ -3483,13 +3363,13 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>20330051920262</v>
+        <v>20330051920265</v>
       </c>
       <c r="B9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" t="s">
         <v>70</v>
-      </c>
-      <c r="C9" t="s">
-        <v>78</v>
       </c>
       <c r="D9" t="s">
         <v>95</v>
@@ -3500,13 +3380,13 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>20330051920265</v>
+        <v>20330051920268</v>
       </c>
       <c r="B10" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="C10" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="D10" t="s">
         <v>96</v>
@@ -3517,13 +3397,13 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>20330051920268</v>
+        <v>20330051920269</v>
       </c>
       <c r="B11" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="C11" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="D11" t="s">
         <v>97</v>
@@ -3534,10 +3414,10 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>20330051920269</v>
+        <v>20330051920270</v>
       </c>
       <c r="B12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C12" t="s">
         <v>84</v>
@@ -3551,10 +3431,10 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>20330051920270</v>
+        <v>20330051920271</v>
       </c>
       <c r="B13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C13" t="s">
         <v>85</v>
@@ -3568,13 +3448,13 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>20330051920271</v>
+        <v>20330051920272</v>
       </c>
       <c r="B14" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C14" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="D14" t="s">
         <v>100</v>
@@ -3585,13 +3465,13 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>20330051920272</v>
+        <v>19220030050208</v>
       </c>
       <c r="B15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C15" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="D15" t="s">
         <v>101</v>
@@ -3602,13 +3482,13 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>19220030050208</v>
+        <v>20330051920273</v>
       </c>
       <c r="B16" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C16" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D16" t="s">
         <v>102</v>
@@ -3622,10 +3502,10 @@
         <v>20330051920274</v>
       </c>
       <c r="B17" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D17" t="s">
         <v>103</v>
@@ -3639,10 +3519,10 @@
         <v>20330051920276</v>
       </c>
       <c r="B18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D18" t="s">
         <v>104</v>
@@ -3656,10 +3536,10 @@
         <v>20330051920278</v>
       </c>
       <c r="B19" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D19" t="s">
         <v>105</v>
@@ -3673,10 +3553,10 @@
         <v>20330051920279</v>
       </c>
       <c r="B20" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D20" t="s">
         <v>106</v>
@@ -3690,10 +3570,10 @@
         <v>20330051920281</v>
       </c>
       <c r="B21" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D21" t="s">
         <v>107</v>
@@ -3707,10 +3587,10 @@
         <v>20330051920282</v>
       </c>
       <c r="B22" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C22" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D22" t="s">
         <v>108</v>
@@ -3726,7 +3606,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3764,10 +3644,10 @@
         <v>20330051920279</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D2" t="s">
         <v>106</v>
@@ -3787,10 +3667,10 @@
         <v>20330051920279</v>
       </c>
       <c r="B3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D3" t="s">
         <v>106</v>
@@ -3810,13 +3690,13 @@
         <v>19220030050208</v>
       </c>
       <c r="B4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E4" t="s">
         <v>11</v>
@@ -3830,16 +3710,16 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>20330051920278</v>
+        <v>20330051920273</v>
       </c>
       <c r="B5" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C5" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="D5" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
@@ -3848,29 +3728,52 @@
         <v>44</v>
       </c>
       <c r="G5">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
+        <v>20330051920278</v>
+      </c>
+      <c r="B6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D6" t="s">
+        <v>105</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
         <v>20330051920282</v>
       </c>
-      <c r="B6" t="s">
-        <v>81</v>
-      </c>
-      <c r="C6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="B7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" t="s">
         <v>108</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E7" t="s">
         <v>11</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F7" t="s">
         <v>43</v>
       </c>
-      <c r="G6">
+      <c r="G7">
         <v>5</v>
       </c>
     </row>

--- a/grupos/2APV - Estadisticos 20202.xlsx
+++ b/grupos/2APV - Estadisticos 20202.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="109">
   <si>
     <t>Materia</t>
   </si>
@@ -179,124 +179,124 @@
     <t>Nombres</t>
   </si>
   <si>
+    <t>CLEMENTE</t>
+  </si>
+  <si>
+    <t>GARCIA</t>
+  </si>
+  <si>
+    <t>GONZALEZ</t>
+  </si>
+  <si>
+    <t>GARNICA</t>
+  </si>
+  <si>
+    <t>NIEVES</t>
+  </si>
+  <si>
+    <t>ANDRADE</t>
+  </si>
+  <si>
+    <t>LEONARDO GAEL</t>
+  </si>
+  <si>
+    <t>JOSE LUIS</t>
+  </si>
+  <si>
+    <t>VALERIA</t>
+  </si>
+  <si>
+    <t>BALTAZARES</t>
+  </si>
+  <si>
     <t>BENITEZ</t>
   </si>
   <si>
-    <t>CLEMENTE</t>
-  </si>
-  <si>
-    <t>GARCIA</t>
-  </si>
-  <si>
-    <t>GONZALEZ</t>
+    <t>CASTRO</t>
+  </si>
+  <si>
+    <t>CASTILLO</t>
+  </si>
+  <si>
+    <t>CORONA</t>
+  </si>
+  <si>
+    <t>GUTIERREZ</t>
+  </si>
+  <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
+    <t>LOPEZ</t>
+  </si>
+  <si>
+    <t>DE LUNA</t>
+  </si>
+  <si>
+    <t>LUNA</t>
+  </si>
+  <si>
+    <t>MARTINEZ</t>
+  </si>
+  <si>
+    <t>OJEDA</t>
+  </si>
+  <si>
+    <t>RAMOS</t>
+  </si>
+  <si>
+    <t>SANTIAGO</t>
+  </si>
+  <si>
+    <t>TELLEZ</t>
+  </si>
+  <si>
+    <t>TINOCO</t>
+  </si>
+  <si>
+    <t>CONTRERAS</t>
   </si>
   <si>
     <t>BAEZ</t>
   </si>
   <si>
-    <t>GARNICA</t>
-  </si>
-  <si>
-    <t>NIEVES</t>
-  </si>
-  <si>
-    <t>ANDRADE</t>
+    <t>RAMIREZ</t>
+  </si>
+  <si>
+    <t>FLORES</t>
+  </si>
+  <si>
+    <t>VILLA</t>
+  </si>
+  <si>
+    <t>DIAZ</t>
+  </si>
+  <si>
+    <t>CARRASCO</t>
+  </si>
+  <si>
+    <t>CORDOVA</t>
+  </si>
+  <si>
+    <t>RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>JIMENEZ</t>
+  </si>
+  <si>
+    <t>XOTLANIHUA</t>
+  </si>
+  <si>
+    <t>REYES</t>
+  </si>
+  <si>
+    <t>OFICIAL</t>
+  </si>
+  <si>
+    <t>IVETTE</t>
   </si>
   <si>
     <t>ANA KAREN</t>
-  </si>
-  <si>
-    <t>LEONARDO GAEL</t>
-  </si>
-  <si>
-    <t>JOSE LUIS</t>
-  </si>
-  <si>
-    <t>VALERIA</t>
-  </si>
-  <si>
-    <t>BALTAZARES</t>
-  </si>
-  <si>
-    <t>CASTRO</t>
-  </si>
-  <si>
-    <t>CASTILLO</t>
-  </si>
-  <si>
-    <t>CORONA</t>
-  </si>
-  <si>
-    <t>GUTIERREZ</t>
-  </si>
-  <si>
-    <t>HERNANDEZ</t>
-  </si>
-  <si>
-    <t>LOPEZ</t>
-  </si>
-  <si>
-    <t>DE LUNA</t>
-  </si>
-  <si>
-    <t>LUNA</t>
-  </si>
-  <si>
-    <t>MARTINEZ</t>
-  </si>
-  <si>
-    <t>OJEDA</t>
-  </si>
-  <si>
-    <t>RAMOS</t>
-  </si>
-  <si>
-    <t>SANTIAGO</t>
-  </si>
-  <si>
-    <t>TELLEZ</t>
-  </si>
-  <si>
-    <t>TINOCO</t>
-  </si>
-  <si>
-    <t>CONTRERAS</t>
-  </si>
-  <si>
-    <t>RAMIREZ</t>
-  </si>
-  <si>
-    <t>FLORES</t>
-  </si>
-  <si>
-    <t>VILLA</t>
-  </si>
-  <si>
-    <t>DIAZ</t>
-  </si>
-  <si>
-    <t>CARRASCO</t>
-  </si>
-  <si>
-    <t>CORDOVA</t>
-  </si>
-  <si>
-    <t>RODRIGUEZ</t>
-  </si>
-  <si>
-    <t>JIMENEZ</t>
-  </si>
-  <si>
-    <t>XOTLANIHUA</t>
-  </si>
-  <si>
-    <t>REYES</t>
-  </si>
-  <si>
-    <t>OFICIAL</t>
-  </si>
-  <si>
-    <t>IVETTE</t>
   </si>
   <si>
     <t>JOSE ANTONIO</t>
@@ -903,7 +903,7 @@
         <v>9</v>
       </c>
       <c r="T4">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="U4">
         <v>8</v>
@@ -950,7 +950,7 @@
         <v>6</v>
       </c>
       <c r="F5">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="G5">
         <v>6</v>
@@ -971,7 +971,7 @@
         <v>5</v>
       </c>
       <c r="M5">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N5">
         <v>6</v>
@@ -992,7 +992,7 @@
         <v>7</v>
       </c>
       <c r="T5">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="U5">
         <v>7</v>
@@ -1013,7 +1013,7 @@
         <v>6</v>
       </c>
       <c r="AA5">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AB5">
         <v>6</v>
@@ -1081,7 +1081,7 @@
         <v>10</v>
       </c>
       <c r="T6">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="U6">
         <v>9</v>
@@ -1170,7 +1170,7 @@
         <v>8</v>
       </c>
       <c r="T7">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="U7">
         <v>7</v>
@@ -1217,7 +1217,7 @@
         <v>5</v>
       </c>
       <c r="F8">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="G8">
         <v>6</v>
@@ -1238,7 +1238,7 @@
         <v>-1</v>
       </c>
       <c r="M8">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N8">
         <v>6</v>
@@ -1259,7 +1259,7 @@
         <v>-1</v>
       </c>
       <c r="T8">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="U8">
         <v>6</v>
@@ -1280,7 +1280,7 @@
         <v>5</v>
       </c>
       <c r="AA8">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AB8">
         <v>6</v>
@@ -1348,7 +1348,7 @@
         <v>5</v>
       </c>
       <c r="T9">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="U9">
         <v>7</v>
@@ -1437,7 +1437,7 @@
         <v>8</v>
       </c>
       <c r="T10">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="U10">
         <v>7</v>
@@ -1484,7 +1484,7 @@
         <v>5</v>
       </c>
       <c r="F11">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G11">
         <v>6</v>
@@ -1505,7 +1505,7 @@
         <v>-1</v>
       </c>
       <c r="M11">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="N11">
         <v>6</v>
@@ -1526,7 +1526,7 @@
         <v>-1</v>
       </c>
       <c r="T11">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="U11">
         <v>-1</v>
@@ -1547,7 +1547,7 @@
         <v>5</v>
       </c>
       <c r="AA11">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AB11">
         <v>6</v>
@@ -1573,7 +1573,7 @@
         <v>5</v>
       </c>
       <c r="F12">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="G12">
         <v>6</v>
@@ -1594,7 +1594,7 @@
         <v>-1</v>
       </c>
       <c r="M12">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N12">
         <v>6</v>
@@ -1615,7 +1615,7 @@
         <v>-1</v>
       </c>
       <c r="T12">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="U12">
         <v>6</v>
@@ -1636,7 +1636,7 @@
         <v>5</v>
       </c>
       <c r="AA12">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AB12">
         <v>6</v>
@@ -1704,7 +1704,7 @@
         <v>5</v>
       </c>
       <c r="T13">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="U13">
         <v>8</v>
@@ -1793,7 +1793,7 @@
         <v>10</v>
       </c>
       <c r="T14">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="U14">
         <v>8</v>
@@ -1882,7 +1882,7 @@
         <v>7</v>
       </c>
       <c r="T15">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="U15">
         <v>8</v>
@@ -1971,7 +1971,7 @@
         <v>8</v>
       </c>
       <c r="T16">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="U16">
         <v>9</v>
@@ -2060,7 +2060,7 @@
         <v>10</v>
       </c>
       <c r="T17">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="U17">
         <v>9</v>
@@ -2149,7 +2149,7 @@
         <v>9</v>
       </c>
       <c r="T18">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="U18">
         <v>8</v>
@@ -2238,7 +2238,7 @@
         <v>6</v>
       </c>
       <c r="T19">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="U19">
         <v>7</v>
@@ -2327,7 +2327,7 @@
         <v>7</v>
       </c>
       <c r="T20">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="U20">
         <v>9</v>
@@ -2416,7 +2416,7 @@
         <v>9</v>
       </c>
       <c r="T21">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="U21">
         <v>7</v>
@@ -2505,7 +2505,7 @@
         <v>7</v>
       </c>
       <c r="T22">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="U22">
         <v>7</v>
@@ -2594,7 +2594,7 @@
         <v>6</v>
       </c>
       <c r="T23">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="U23">
         <v>6</v>
@@ -2683,7 +2683,7 @@
         <v>6</v>
       </c>
       <c r="T24">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="U24">
         <v>7</v>
@@ -2842,25 +2842,25 @@
         <v>21</v>
       </c>
       <c r="D4">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>95.23999999999999</v>
+      </c>
+      <c r="G4">
+        <v>4.76</v>
+      </c>
+      <c r="H4">
+        <v>7.4</v>
+      </c>
+      <c r="I4">
         <v>0</v>
       </c>
-      <c r="F4">
-        <v>80.95</v>
-      </c>
-      <c r="G4">
+      <c r="J4">
         <v>0</v>
-      </c>
-      <c r="H4">
-        <v>7.8</v>
-      </c>
-      <c r="I4">
-        <v>4</v>
-      </c>
-      <c r="J4">
-        <v>19.05</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2998,7 +2998,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3030,36 +3030,36 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>20330051920261</v>
+        <v>20330051920264</v>
       </c>
       <c r="B2" t="s">
         <v>53</v>
       </c>
       <c r="C2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>20330051920264</v>
+        <v>20330051920266</v>
       </c>
       <c r="B3" t="s">
         <v>54</v>
       </c>
       <c r="C3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -3070,22 +3070,22 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>20330051920264</v>
+        <v>20330051920266</v>
       </c>
       <c r="B4" t="s">
         <v>54</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3093,16 +3093,16 @@
         <v>20330051920266</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F5" t="s">
         <v>46</v>
@@ -3110,102 +3110,22 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>20330051920266</v>
+        <v>20330051920267</v>
       </c>
       <c r="B6" t="s">
         <v>55</v>
       </c>
       <c r="C6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
       </c>
       <c r="F6" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7">
-        <v>20330051920266</v>
-      </c>
-      <c r="B7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C7" t="s">
-        <v>59</v>
-      </c>
-      <c r="D7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8">
-        <v>20330051920266</v>
-      </c>
-      <c r="B8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C8" t="s">
-        <v>59</v>
-      </c>
-      <c r="D8" t="s">
-        <v>63</v>
-      </c>
-      <c r="E8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9">
-        <v>20330051920267</v>
-      </c>
-      <c r="B9" t="s">
-        <v>56</v>
-      </c>
-      <c r="C9" t="s">
-        <v>60</v>
-      </c>
-      <c r="D9" t="s">
-        <v>64</v>
-      </c>
-      <c r="E9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10">
-        <v>20330051920267</v>
-      </c>
-      <c r="B10" t="s">
-        <v>56</v>
-      </c>
-      <c r="C10" t="s">
-        <v>60</v>
-      </c>
-      <c r="D10" t="s">
-        <v>64</v>
-      </c>
-      <c r="E10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -3247,16 +3167,16 @@
         <v>20330051920266</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E2">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -3264,16 +3184,16 @@
         <v>20330051920264</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3281,44 +3201,44 @@
         <v>20330051920267</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>20330051920261</v>
+        <v>20330051920260</v>
       </c>
       <c r="B5" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="C5" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="D5" t="s">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>20330051920260</v>
+        <v>20330051920261</v>
       </c>
       <c r="B6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D6" t="s">
         <v>92</v>
@@ -3332,10 +3252,10 @@
         <v>19330051920314</v>
       </c>
       <c r="B7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D7" t="s">
         <v>93</v>
@@ -3349,10 +3269,10 @@
         <v>20330051920262</v>
       </c>
       <c r="B8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D8" t="s">
         <v>94</v>
@@ -3366,10 +3286,10 @@
         <v>20330051920265</v>
       </c>
       <c r="B9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" t="s">
         <v>68</v>
-      </c>
-      <c r="C9" t="s">
-        <v>70</v>
       </c>
       <c r="D9" t="s">
         <v>95</v>
@@ -3383,10 +3303,10 @@
         <v>20330051920268</v>
       </c>
       <c r="B10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D10" t="s">
         <v>96</v>
@@ -3400,10 +3320,10 @@
         <v>20330051920269</v>
       </c>
       <c r="B11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D11" t="s">
         <v>97</v>
@@ -3417,10 +3337,10 @@
         <v>20330051920270</v>
       </c>
       <c r="B12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D12" t="s">
         <v>98</v>
@@ -3434,10 +3354,10 @@
         <v>20330051920271</v>
       </c>
       <c r="B13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D13" t="s">
         <v>99</v>
@@ -3451,10 +3371,10 @@
         <v>20330051920272</v>
       </c>
       <c r="B14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C14" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D14" t="s">
         <v>100</v>
@@ -3468,10 +3388,10 @@
         <v>19220030050208</v>
       </c>
       <c r="B15" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D15" t="s">
         <v>101</v>
@@ -3485,10 +3405,10 @@
         <v>20330051920273</v>
       </c>
       <c r="B16" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D16" t="s">
         <v>102</v>
@@ -3502,10 +3422,10 @@
         <v>20330051920274</v>
       </c>
       <c r="B17" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D17" t="s">
         <v>103</v>
@@ -3519,10 +3439,10 @@
         <v>20330051920276</v>
       </c>
       <c r="B18" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D18" t="s">
         <v>104</v>
@@ -3536,10 +3456,10 @@
         <v>20330051920278</v>
       </c>
       <c r="B19" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D19" t="s">
         <v>105</v>
@@ -3553,10 +3473,10 @@
         <v>20330051920279</v>
       </c>
       <c r="B20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D20" t="s">
         <v>106</v>
@@ -3570,10 +3490,10 @@
         <v>20330051920281</v>
       </c>
       <c r="B21" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D21" t="s">
         <v>107</v>
@@ -3587,10 +3507,10 @@
         <v>20330051920282</v>
       </c>
       <c r="B22" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C22" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D22" t="s">
         <v>108</v>
@@ -3606,7 +3526,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3641,16 +3561,16 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>20330051920279</v>
+        <v>20330051920261</v>
       </c>
       <c r="B2" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="C2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="D2" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -3659,21 +3579,21 @@
         <v>44</v>
       </c>
       <c r="G2">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>20330051920279</v>
+        <v>20330051920261</v>
       </c>
       <c r="B3" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="C3" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="D3" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
@@ -3687,62 +3607,62 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>19220030050208</v>
+        <v>20330051920264</v>
       </c>
       <c r="B4" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="C4" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="D4" t="s">
-        <v>101</v>
+        <v>59</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G4">
-        <v>5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>20330051920273</v>
+        <v>20330051920264</v>
       </c>
       <c r="B5" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="C5" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="D5" t="s">
-        <v>102</v>
+        <v>59</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G5">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>20330051920278</v>
+        <v>20330051920267</v>
       </c>
       <c r="B6" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="C6" t="s">
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="D6" t="s">
-        <v>105</v>
+        <v>61</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
@@ -3751,21 +3671,21 @@
         <v>44</v>
       </c>
       <c r="G6">
-        <v>5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>20330051920282</v>
+        <v>20330051920267</v>
       </c>
       <c r="B7" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="C7" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="D7" t="s">
-        <v>108</v>
+        <v>61</v>
       </c>
       <c r="E7" t="s">
         <v>11</v>
@@ -3774,6 +3694,144 @@
         <v>43</v>
       </c>
       <c r="G7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>20330051920279</v>
+      </c>
+      <c r="B8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D8" t="s">
+        <v>106</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>20330051920279</v>
+      </c>
+      <c r="B9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" t="s">
+        <v>106</v>
+      </c>
+      <c r="E9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>19220030050208</v>
+      </c>
+      <c r="B10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D10" t="s">
+        <v>101</v>
+      </c>
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>20330051920273</v>
+      </c>
+      <c r="B11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" t="s">
+        <v>102</v>
+      </c>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>20330051920278</v>
+      </c>
+      <c r="B12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" t="s">
+        <v>88</v>
+      </c>
+      <c r="D12" t="s">
+        <v>105</v>
+      </c>
+      <c r="E12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>20330051920282</v>
+      </c>
+      <c r="B13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" t="s">
+        <v>108</v>
+      </c>
+      <c r="E13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13">
         <v>5</v>
       </c>
     </row>

--- a/grupos/2APV - Estadisticos 20202.xlsx
+++ b/grupos/2APV - Estadisticos 20202.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="109">
   <si>
     <t>Materia</t>
   </si>
@@ -179,15 +179,72 @@
     <t>Nombres</t>
   </si>
   <si>
+    <t>BALTAZARES</t>
+  </si>
+  <si>
+    <t>BENITEZ</t>
+  </si>
+  <si>
+    <t>CASTRO</t>
+  </si>
+  <si>
+    <t>CASTILLO</t>
+  </si>
+  <si>
     <t>CLEMENTE</t>
   </si>
   <si>
+    <t>CORONA</t>
+  </si>
+  <si>
     <t>GARCIA</t>
   </si>
   <si>
     <t>GONZALEZ</t>
   </si>
   <si>
+    <t>GUTIERREZ</t>
+  </si>
+  <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
+    <t>LOPEZ</t>
+  </si>
+  <si>
+    <t>DE LUNA</t>
+  </si>
+  <si>
+    <t>LUNA</t>
+  </si>
+  <si>
+    <t>MARTINEZ</t>
+  </si>
+  <si>
+    <t>OJEDA</t>
+  </si>
+  <si>
+    <t>RAMOS</t>
+  </si>
+  <si>
+    <t>SANTIAGO</t>
+  </si>
+  <si>
+    <t>TELLEZ</t>
+  </si>
+  <si>
+    <t>TINOCO</t>
+  </si>
+  <si>
+    <t>CONTRERAS</t>
+  </si>
+  <si>
+    <t>BAEZ</t>
+  </si>
+  <si>
+    <t>RAMIREZ</t>
+  </si>
+  <si>
     <t>GARNICA</t>
   </si>
   <si>
@@ -197,115 +254,58 @@
     <t>ANDRADE</t>
   </si>
   <si>
+    <t>FLORES</t>
+  </si>
+  <si>
+    <t>VILLA</t>
+  </si>
+  <si>
+    <t>DIAZ</t>
+  </si>
+  <si>
+    <t>CARRASCO</t>
+  </si>
+  <si>
+    <t>CORDOVA</t>
+  </si>
+  <si>
+    <t>RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>JIMENEZ</t>
+  </si>
+  <si>
+    <t>XOTLANIHUA</t>
+  </si>
+  <si>
+    <t>REYES</t>
+  </si>
+  <si>
+    <t>OFICIAL</t>
+  </si>
+  <si>
+    <t>IVETTE</t>
+  </si>
+  <si>
+    <t>ANA KAREN</t>
+  </si>
+  <si>
+    <t>JOSE ANTONIO</t>
+  </si>
+  <si>
+    <t>IAN URIEL</t>
+  </si>
+  <si>
     <t>LEONARDO GAEL</t>
   </si>
   <si>
+    <t>GUADALUPE</t>
+  </si>
+  <si>
     <t>JOSE LUIS</t>
   </si>
   <si>
     <t>VALERIA</t>
-  </si>
-  <si>
-    <t>BALTAZARES</t>
-  </si>
-  <si>
-    <t>BENITEZ</t>
-  </si>
-  <si>
-    <t>CASTRO</t>
-  </si>
-  <si>
-    <t>CASTILLO</t>
-  </si>
-  <si>
-    <t>CORONA</t>
-  </si>
-  <si>
-    <t>GUTIERREZ</t>
-  </si>
-  <si>
-    <t>HERNANDEZ</t>
-  </si>
-  <si>
-    <t>LOPEZ</t>
-  </si>
-  <si>
-    <t>DE LUNA</t>
-  </si>
-  <si>
-    <t>LUNA</t>
-  </si>
-  <si>
-    <t>MARTINEZ</t>
-  </si>
-  <si>
-    <t>OJEDA</t>
-  </si>
-  <si>
-    <t>RAMOS</t>
-  </si>
-  <si>
-    <t>SANTIAGO</t>
-  </si>
-  <si>
-    <t>TELLEZ</t>
-  </si>
-  <si>
-    <t>TINOCO</t>
-  </si>
-  <si>
-    <t>CONTRERAS</t>
-  </si>
-  <si>
-    <t>BAEZ</t>
-  </si>
-  <si>
-    <t>RAMIREZ</t>
-  </si>
-  <si>
-    <t>FLORES</t>
-  </si>
-  <si>
-    <t>VILLA</t>
-  </si>
-  <si>
-    <t>DIAZ</t>
-  </si>
-  <si>
-    <t>CARRASCO</t>
-  </si>
-  <si>
-    <t>CORDOVA</t>
-  </si>
-  <si>
-    <t>RODRIGUEZ</t>
-  </si>
-  <si>
-    <t>JIMENEZ</t>
-  </si>
-  <si>
-    <t>XOTLANIHUA</t>
-  </si>
-  <si>
-    <t>REYES</t>
-  </si>
-  <si>
-    <t>OFICIAL</t>
-  </si>
-  <si>
-    <t>IVETTE</t>
-  </si>
-  <si>
-    <t>ANA KAREN</t>
-  </si>
-  <si>
-    <t>JOSE ANTONIO</t>
-  </si>
-  <si>
-    <t>IAN URIEL</t>
-  </si>
-  <si>
-    <t>GUADALUPE</t>
   </si>
   <si>
     <t>JESUS HUMBERTO</t>
@@ -1235,7 +1235,7 @@
         <v>6</v>
       </c>
       <c r="L8">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M8">
         <v>6</v>
@@ -1256,7 +1256,7 @@
         <v>6</v>
       </c>
       <c r="S8">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="T8">
         <v>6</v>
@@ -1472,13 +1472,13 @@
         <v>20</v>
       </c>
       <c r="B11">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C11">
         <v>6</v>
       </c>
       <c r="D11">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E11">
         <v>5</v>
@@ -1493,16 +1493,16 @@
         <v>5</v>
       </c>
       <c r="I11">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J11">
         <v>6</v>
       </c>
       <c r="K11">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L11">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M11">
         <v>5</v>
@@ -1514,34 +1514,34 @@
         <v>5</v>
       </c>
       <c r="P11">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Q11">
         <v>6</v>
       </c>
       <c r="R11">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="S11">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="T11">
         <v>5</v>
       </c>
       <c r="U11">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="V11">
         <v>5</v>
       </c>
       <c r="W11">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="X11">
         <v>6</v>
       </c>
       <c r="Y11">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Z11">
         <v>5</v>
@@ -1550,7 +1550,7 @@
         <v>5</v>
       </c>
       <c r="AB11">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AC11">
         <v>5</v>
@@ -1591,7 +1591,7 @@
         <v>6</v>
       </c>
       <c r="L12">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M12">
         <v>6</v>
@@ -1612,7 +1612,7 @@
         <v>6</v>
       </c>
       <c r="S12">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="T12">
         <v>6</v>
@@ -2822,13 +2822,13 @@
         <v>33.33</v>
       </c>
       <c r="H3">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="I3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>14.29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2874,65 +2874,65 @@
         <v>21</v>
       </c>
       <c r="D5">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>95.23999999999999</v>
+        <v>100</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>4.76</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C6">
         <v>21</v>
       </c>
       <c r="D6">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>95.23999999999999</v>
+        <v>100</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7.7</v>
+        <v>6.9</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>4.76</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C7">
         <v>21</v>
@@ -2950,7 +2950,7 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -2961,10 +2961,10 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C8">
         <v>21</v>
@@ -2982,7 +2982,7 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7</v>
+        <v>7.6</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -2998,7 +2998,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3026,106 +3026,6 @@
       </c>
       <c r="F1" s="1" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2">
-        <v>20330051920264</v>
-      </c>
-      <c r="B2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3">
-        <v>20330051920266</v>
-      </c>
-      <c r="B3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4">
-        <v>20330051920266</v>
-      </c>
-      <c r="B4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5">
-        <v>20330051920266</v>
-      </c>
-      <c r="B5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D5" t="s">
-        <v>60</v>
-      </c>
-      <c r="E5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6">
-        <v>20330051920267</v>
-      </c>
-      <c r="B6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -3164,64 +3064,64 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>20330051920266</v>
+        <v>20330051920260</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C2" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="D2" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>20330051920264</v>
+        <v>20330051920261</v>
       </c>
       <c r="B3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C3" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="D3" t="s">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>20330051920267</v>
+        <v>19330051920314</v>
       </c>
       <c r="B4" t="s">
         <v>55</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="D4" t="s">
-        <v>61</v>
+        <v>90</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>20330051920260</v>
+        <v>20330051920262</v>
       </c>
       <c r="B5" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C5" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="D5" t="s">
         <v>91</v>
@@ -3232,13 +3132,13 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>20330051920261</v>
+        <v>20330051920264</v>
       </c>
       <c r="B6" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C6" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D6" t="s">
         <v>92</v>
@@ -3249,13 +3149,13 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>19330051920314</v>
+        <v>20330051920265</v>
       </c>
       <c r="B7" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C7" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="D7" t="s">
         <v>93</v>
@@ -3266,13 +3166,13 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>20330051920262</v>
+        <v>20330051920266</v>
       </c>
       <c r="B8" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D8" t="s">
         <v>94</v>
@@ -3283,13 +3183,13 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>20330051920265</v>
+        <v>20330051920267</v>
       </c>
       <c r="B9" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C9" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="D9" t="s">
         <v>95</v>
@@ -3303,10 +3203,10 @@
         <v>20330051920268</v>
       </c>
       <c r="B10" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C10" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D10" t="s">
         <v>96</v>
@@ -3320,10 +3220,10 @@
         <v>20330051920269</v>
       </c>
       <c r="B11" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C11" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D11" t="s">
         <v>97</v>
@@ -3337,10 +3237,10 @@
         <v>20330051920270</v>
       </c>
       <c r="B12" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C12" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D12" t="s">
         <v>98</v>
@@ -3354,10 +3254,10 @@
         <v>20330051920271</v>
       </c>
       <c r="B13" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C13" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D13" t="s">
         <v>99</v>
@@ -3371,10 +3271,10 @@
         <v>20330051920272</v>
       </c>
       <c r="B14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" t="s">
         <v>69</v>
-      </c>
-      <c r="C14" t="s">
-        <v>75</v>
       </c>
       <c r="D14" t="s">
         <v>100</v>
@@ -3388,10 +3288,10 @@
         <v>19220030050208</v>
       </c>
       <c r="B15" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C15" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D15" t="s">
         <v>101</v>
@@ -3405,10 +3305,10 @@
         <v>20330051920273</v>
       </c>
       <c r="B16" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C16" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D16" t="s">
         <v>102</v>
@@ -3422,10 +3322,10 @@
         <v>20330051920274</v>
       </c>
       <c r="B17" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C17" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D17" t="s">
         <v>103</v>
@@ -3439,10 +3339,10 @@
         <v>20330051920276</v>
       </c>
       <c r="B18" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C18" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D18" t="s">
         <v>104</v>
@@ -3456,10 +3356,10 @@
         <v>20330051920278</v>
       </c>
       <c r="B19" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C19" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D19" t="s">
         <v>105</v>
@@ -3473,10 +3373,10 @@
         <v>20330051920279</v>
       </c>
       <c r="B20" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C20" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D20" t="s">
         <v>106</v>
@@ -3490,10 +3390,10 @@
         <v>20330051920281</v>
       </c>
       <c r="B21" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C21" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D21" t="s">
         <v>107</v>
@@ -3507,10 +3407,10 @@
         <v>20330051920282</v>
       </c>
       <c r="B22" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C22" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D22" t="s">
         <v>108</v>
@@ -3564,13 +3464,13 @@
         <v>20330051920261</v>
       </c>
       <c r="B2" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -3587,13 +3487,13 @@
         <v>20330051920261</v>
       </c>
       <c r="B3" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C3" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
@@ -3610,13 +3510,13 @@
         <v>20330051920264</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C4" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="D4" t="s">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
@@ -3625,7 +3525,7 @@
         <v>44</v>
       </c>
       <c r="G4">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -3633,13 +3533,13 @@
         <v>20330051920264</v>
       </c>
       <c r="B5" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="D5" t="s">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="E5" t="s">
         <v>11</v>
@@ -3656,13 +3556,13 @@
         <v>20330051920267</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C6" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="D6" t="s">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
@@ -3671,7 +3571,7 @@
         <v>44</v>
       </c>
       <c r="G6">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -3679,13 +3579,13 @@
         <v>20330051920267</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C7" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="D7" t="s">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="E7" t="s">
         <v>11</v>
@@ -3702,10 +3602,10 @@
         <v>20330051920279</v>
       </c>
       <c r="B8" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C8" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D8" t="s">
         <v>106</v>
@@ -3725,10 +3625,10 @@
         <v>20330051920279</v>
       </c>
       <c r="B9" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C9" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D9" t="s">
         <v>106</v>
@@ -3748,10 +3648,10 @@
         <v>19220030050208</v>
       </c>
       <c r="B10" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C10" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D10" t="s">
         <v>101</v>
@@ -3771,10 +3671,10 @@
         <v>20330051920273</v>
       </c>
       <c r="B11" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C11" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D11" t="s">
         <v>102</v>
@@ -3794,10 +3694,10 @@
         <v>20330051920278</v>
       </c>
       <c r="B12" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C12" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D12" t="s">
         <v>105</v>
@@ -3817,10 +3717,10 @@
         <v>20330051920282</v>
       </c>
       <c r="B13" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C13" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D13" t="s">
         <v>108</v>

--- a/grupos/2APV - Estadisticos 20202.xlsx
+++ b/grupos/2APV - Estadisticos 20202.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="109">
   <si>
     <t>Materia</t>
   </si>
@@ -149,22 +149,22 @@
     <t>Por_Blancos</t>
   </si>
   <si>
+    <t>Santiago Hernández Mariana</t>
+  </si>
+  <si>
+    <t>Villanueva Morales Luis Arturo</t>
+  </si>
+  <si>
     <t>Contreras Díaz Irma Ivette</t>
   </si>
   <si>
-    <t>Santiago Hernández Mariana</t>
-  </si>
-  <si>
-    <t>Villanueva Morales Luis Arturo</t>
+    <t>Medina Tolentino Francisco</t>
   </si>
   <si>
     <t>Acevedo Rendón Ismael Arturo</t>
   </si>
   <si>
     <t>De Jesús Orduña Sofía del Pilar</t>
-  </si>
-  <si>
-    <t>Medina Tolentino Francisco</t>
   </si>
   <si>
     <t>NC</t>
@@ -2769,7 +2769,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
         <v>43</v>
@@ -2778,16 +2778,16 @@
         <v>21</v>
       </c>
       <c r="D2">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>66.67</v>
+        <v>85.70999999999999</v>
       </c>
       <c r="G2">
-        <v>33.33</v>
+        <v>14.29</v>
       </c>
       <c r="H2">
         <v>7</v>
@@ -2801,7 +2801,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
         <v>44</v>
@@ -2810,19 +2810,19 @@
         <v>21</v>
       </c>
       <c r="D3">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>66.67</v>
+        <v>95.23999999999999</v>
       </c>
       <c r="G3">
-        <v>33.33</v>
+        <v>4.76</v>
       </c>
       <c r="H3">
-        <v>6.4</v>
+        <v>7.5</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -2833,7 +2833,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
         <v>45</v>
@@ -2854,7 +2854,7 @@
         <v>4.76</v>
       </c>
       <c r="H4">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -2865,7 +2865,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
         <v>46</v>
@@ -2874,19 +2874,19 @@
         <v>21</v>
       </c>
       <c r="D5">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>100</v>
+        <v>95.23999999999999</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>4.76</v>
       </c>
       <c r="H5">
-        <v>7.3</v>
+        <v>7.1</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -2897,7 +2897,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>47</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>6.9</v>
+        <v>7.9</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -2929,7 +2929,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>48</v>
@@ -2950,7 +2950,7 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -2964,7 +2964,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C8">
         <v>21</v>
@@ -2982,7 +2982,7 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -3426,7 +3426,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3456,27 +3456,27 @@
         <v>34</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>20330051920261</v>
+        <v>20330051920264</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G2">
         <v>5</v>
@@ -3484,254 +3484,24 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>20330051920261</v>
+        <v>20330051920267</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C3" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D3" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F3" t="s">
         <v>43</v>
       </c>
       <c r="G3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>20330051920264</v>
-      </c>
-      <c r="B4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D4" t="s">
-        <v>92</v>
-      </c>
-      <c r="E4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
-        <v>20330051920264</v>
-      </c>
-      <c r="B5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D5" t="s">
-        <v>92</v>
-      </c>
-      <c r="E5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
-        <v>20330051920267</v>
-      </c>
-      <c r="B6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C6" t="s">
-        <v>77</v>
-      </c>
-      <c r="D6" t="s">
-        <v>95</v>
-      </c>
-      <c r="E6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" t="s">
-        <v>44</v>
-      </c>
-      <c r="G6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
-        <v>20330051920267</v>
-      </c>
-      <c r="B7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C7" t="s">
-        <v>77</v>
-      </c>
-      <c r="D7" t="s">
-        <v>95</v>
-      </c>
-      <c r="E7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
-        <v>20330051920279</v>
-      </c>
-      <c r="B8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C8" t="s">
-        <v>86</v>
-      </c>
-      <c r="D8" t="s">
-        <v>106</v>
-      </c>
-      <c r="E8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" t="s">
-        <v>44</v>
-      </c>
-      <c r="G8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9">
-        <v>20330051920279</v>
-      </c>
-      <c r="B9" t="s">
-        <v>69</v>
-      </c>
-      <c r="C9" t="s">
-        <v>86</v>
-      </c>
-      <c r="D9" t="s">
-        <v>106</v>
-      </c>
-      <c r="E9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" t="s">
-        <v>43</v>
-      </c>
-      <c r="G9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10">
-        <v>19220030050208</v>
-      </c>
-      <c r="B10" t="s">
-        <v>64</v>
-      </c>
-      <c r="C10" t="s">
-        <v>82</v>
-      </c>
-      <c r="D10" t="s">
-        <v>101</v>
-      </c>
-      <c r="E10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" t="s">
-        <v>43</v>
-      </c>
-      <c r="G10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11">
-        <v>20330051920273</v>
-      </c>
-      <c r="B11" t="s">
-        <v>65</v>
-      </c>
-      <c r="C11" t="s">
-        <v>78</v>
-      </c>
-      <c r="D11" t="s">
-        <v>102</v>
-      </c>
-      <c r="E11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" t="s">
-        <v>44</v>
-      </c>
-      <c r="G11">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12">
-        <v>20330051920278</v>
-      </c>
-      <c r="B12" t="s">
-        <v>68</v>
-      </c>
-      <c r="C12" t="s">
-        <v>85</v>
-      </c>
-      <c r="D12" t="s">
-        <v>105</v>
-      </c>
-      <c r="E12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" t="s">
-        <v>44</v>
-      </c>
-      <c r="G12">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13">
-        <v>20330051920282</v>
-      </c>
-      <c r="B13" t="s">
-        <v>71</v>
-      </c>
-      <c r="C13" t="s">
-        <v>68</v>
-      </c>
-      <c r="D13" t="s">
-        <v>108</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>43</v>
-      </c>
-      <c r="G13">
         <v>5</v>
       </c>
     </row>
